--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CFF2BC-E4A6-4BFA-90C5-E129C45CA8B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A1086E-4662-4483-AB7B-E72BB76AF6F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3912" yWindow="1548" windowWidth="15912" windowHeight="10884" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3912" yWindow="1548" windowWidth="15912" windowHeight="10884" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="43">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -195,6 +195,9 @@
   <si>
     <t>后台完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>即添加线路和查看线路的页面</t>
   </si>
 </sst>
 </file>
@@ -939,12 +942,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="C13:C14"/>
@@ -953,6 +950,12 @@
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1354,6 +1357,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="C13:C14"/>
@@ -1362,12 +1371,6 @@
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1769,6 +1772,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="C13:C14"/>
@@ -1777,12 +1786,6 @@
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1794,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26135A56-B6F2-49DE-8DA8-D34128972823}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A5" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
@@ -1934,7 +1937,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,7 +1954,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="7">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,7 +1964,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
@@ -2199,6 +2202,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="C13:C14"/>
@@ -2207,12 +2216,6 @@
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2614,6 +2617,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="C13:C14"/>
@@ -2622,12 +2631,6 @@
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3029,6 +3032,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="C13:C14"/>
@@ -3037,12 +3046,6 @@
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3054,8 +3057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85C01CD-3593-44E7-9D3F-B2EA161B4A29}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
@@ -3205,7 +3208,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3214,6 +3220,9 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
+      <c r="E11" s="7">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
@@ -3224,6 +3233,9 @@
       </c>
       <c r="D12" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3450,12 +3462,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="C13:C14"/>
@@ -3464,6 +3470,12 @@
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A1086E-4662-4483-AB7B-E72BB76AF6F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70BA8D0-26EC-4A43-A39B-4B5B2D4A29F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3912" yWindow="1548" windowWidth="15912" windowHeight="10884" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="1248" windowWidth="15912" windowHeight="10884" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -942,6 +942,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="C13:C14"/>
@@ -950,12 +956,6 @@
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1080,7 +1080,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1357,12 +1357,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="C13:C14"/>
@@ -1371,6 +1365,12 @@
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1772,12 +1772,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="C13:C14"/>
@@ -1786,6 +1780,12 @@
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1798,7 +1798,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
@@ -1954,7 +1954,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="7">
-        <v>0.2</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1964,7 +1964,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
@@ -2202,12 +2202,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="C13:C14"/>
@@ -2216,6 +2210,12 @@
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2617,12 +2617,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="C13:C14"/>
@@ -2631,6 +2625,12 @@
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2643,7 +2643,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
@@ -2755,7 +2755,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="7">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3016,6 +3016,436 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85C01CD-3593-44E7-9D3F-B2EA161B4A29}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="20.6640625" style="4"/>
+    <col min="3" max="3" width="30.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="4"/>
+    <col min="6" max="6" width="63.6640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43640</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>43641</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>43642</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>43643</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>43644</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>43648</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>43649</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>43650</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>43651</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="8"/>
@@ -3053,441 +3483,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85C01CD-3593-44E7-9D3F-B2EA161B4A29}">
-  <dimension ref="A1:F36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="20.6640625" style="4"/>
-    <col min="3" max="3" width="30.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="4"/>
-    <col min="6" max="6" width="63.6640625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>43640</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>43641</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>43642</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>43643</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>43644</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>43647</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>43648</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>43649</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>43650</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>43651</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="7"/>
+    <workbookView windowWidth="20130" windowHeight="7515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -154,10 +154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -176,21 +176,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,9 +210,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,14 +249,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -273,9 +256,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,22 +286,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,7 +333,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,174 +514,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,23 +530,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,7 +579,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,36 +599,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -616,11 +610,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,145 +630,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1880,8 +1880,8 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
@@ -2024,9 +2024,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="51" spans="2:4">
@@ -3877,8 +3880,8 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
@@ -4029,7 +4032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="51" spans="2:4">
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -4038,6 +4041,9 @@
       </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">

--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRepository\hgkj_02\程鑫鑫\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA0AAA5-40B6-4369-9FE1-49512D3B0C9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="7515" activeTab="2"/>
+    <workbookView xWindow="2088" yWindow="1248" windowWidth="15912" windowHeight="10884" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -152,14 +158,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,151 +174,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,194 +193,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -526,258 +202,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -789,62 +220,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1102,44 +495,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1159,8 +557,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1173,7 +571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:4">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,7 +582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1195,26 +593,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="51" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" ht="51" spans="2:4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1225,26 +625,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" ht="51" spans="2:4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1255,26 +657,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1285,8 +689,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1296,30 +700,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1339,29 +744,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1371,7 +778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1379,7 +786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1387,8 +794,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1398,68 +805,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1478,47 +896,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1538,8 +960,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1551,11 +973,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1565,11 +987,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1579,33 +1001,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" ht="51" spans="2:4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1615,27 +1042,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" ht="51" spans="2:4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1646,26 +1084,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1676,8 +1116,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1687,30 +1127,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1730,29 +1171,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1762,7 +1205,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1770,7 +1213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1778,8 +1221,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1789,68 +1232,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1869,47 +1323,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1929,8 +1387,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1942,11 +1400,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:5">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1956,11 +1414,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1970,33 +1428,35 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2006,33 +1466,35 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2043,26 +1505,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2073,8 +1537,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2083,34 +1547,35 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2130,29 +1595,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2162,7 +1629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2170,7 +1637,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2178,8 +1645,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2189,68 +1656,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2269,47 +1747,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2329,8 +1811,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2342,14 +1824,14 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.5</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:5">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2359,11 +1841,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2373,36 +1855,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2412,36 +1896,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2451,27 +1937,38 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2481,9 +1978,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+      <c r="E15" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2493,30 +1993,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2536,29 +2037,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2568,7 +2071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2576,7 +2079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2584,8 +2087,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2595,68 +2098,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2675,47 +2189,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="61" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2735,8 +2253,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2748,11 +2266,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2762,11 +2280,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2776,33 +2294,35 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2812,33 +2332,35 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" ht="51" spans="2:4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2849,26 +2371,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2879,8 +2403,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2890,30 +2414,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2933,29 +2458,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2965,7 +2492,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2973,7 +2500,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2981,8 +2508,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2992,68 +2519,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3072,47 +2610,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3132,8 +2674,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3145,11 +2687,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3159,11 +2701,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3173,33 +2715,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" ht="51" spans="2:4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3209,27 +2756,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" ht="51" spans="2:4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3240,26 +2798,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3270,8 +2830,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3281,30 +2841,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3324,29 +2885,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3356,7 +2919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3364,7 +2927,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3372,8 +2935,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3383,68 +2946,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3463,47 +3037,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3523,8 +3101,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3536,11 +3114,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3550,11 +3128,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3564,36 +3142,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3603,36 +3183,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" ht="51" spans="2:5">
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3642,30 +3224,32 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3676,8 +3260,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3687,30 +3271,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3730,29 +3315,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3762,7 +3349,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3770,7 +3357,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3778,8 +3365,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3789,68 +3376,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3869,47 +3467,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3929,8 +3531,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3942,11 +3544,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:5">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3956,11 +3558,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3970,33 +3572,35 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -4006,33 +3610,35 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -4042,30 +3648,32 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -4076,8 +3684,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4086,34 +3694,35 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -4133,29 +3742,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4165,7 +3776,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -4173,7 +3784,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -4181,8 +3792,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -4192,68 +3803,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4272,8 +3894,8 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRepository\hgkj_02\程鑫鑫\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA0AAA5-40B6-4369-9FE1-49512D3B0C9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="1248" windowWidth="15912" windowHeight="10884" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20130" windowHeight="7515" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -158,8 +152,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,13 +174,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,8 +331,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -202,15 +526,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -220,24 +789,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -495,49 +1102,44 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -557,8 +1159,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -571,7 +1173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="51" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -582,7 +1184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -593,28 +1195,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" ht="51" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" ht="51" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -625,28 +1225,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" ht="51" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -657,28 +1255,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -689,8 +1285,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -700,31 +1296,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,31 +1339,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -778,7 +1371,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -786,7 +1379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -794,8 +1387,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -805,79 +1398,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -896,51 +1478,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -960,8 +1538,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -973,11 +1551,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -987,11 +1565,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1001,38 +1579,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,38 +1618,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,29 +1657,30 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="E12" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,8 +1691,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1127,31 +1702,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1171,31 +1745,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1205,7 +1777,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1213,7 +1785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1221,8 +1793,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1232,79 +1804,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1323,51 +1884,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1387,8 +1944,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1400,11 +1957,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1414,11 +1971,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1428,35 +1985,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,35 +2024,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1504,29 +2063,30 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1537,8 +2097,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1547,35 +2107,34 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1595,31 +2154,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1629,7 +2186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1637,7 +2194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1645,8 +2202,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1656,79 +2213,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1747,51 +2293,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1811,8 +2353,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1824,14 +2366,14 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.5</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1841,11 +2383,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1855,38 +2397,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1896,38 +2436,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1937,38 +2475,36 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1978,12 +2514,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1993,31 +2529,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2037,31 +2572,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2071,7 +2604,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2079,7 +2612,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2087,8 +2620,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2098,79 +2631,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2189,51 +2711,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+    <sheetView zoomScale="61" zoomScaleNormal="61" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2253,8 +2771,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2266,11 +2784,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2280,11 +2798,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2294,35 +2812,33 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2332,35 +2848,33 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" ht="51" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2371,28 +2885,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2403,8 +2915,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2414,31 +2926,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2458,31 +2969,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2492,7 +3001,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2500,7 +3009,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2508,8 +3017,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2519,79 +3028,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2610,51 +3108,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2674,8 +3168,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2687,11 +3181,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2701,11 +3195,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2715,38 +3209,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2756,38 +3248,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="12" ht="51" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2798,28 +3288,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2830,8 +3318,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2841,31 +3329,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2885,31 +3372,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2919,7 +3404,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2927,7 +3412,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2935,8 +3420,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2946,79 +3431,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3037,51 +3511,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3101,8 +3571,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3114,11 +3584,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3128,11 +3598,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3142,38 +3612,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3183,38 +3651,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3224,32 +3690,30 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3260,8 +3724,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3271,31 +3735,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3315,31 +3778,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3349,7 +3810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3357,7 +3818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3365,8 +3826,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3376,79 +3837,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3467,51 +3917,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3531,8 +3977,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3544,11 +3990,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3558,11 +4004,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3572,35 +4018,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3610,35 +4057,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3648,32 +4096,30 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3684,8 +4130,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3694,35 +4140,34 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3742,31 +4187,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3776,7 +4219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3784,7 +4227,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3792,8 +4235,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3803,79 +4246,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3894,8 +4326,8 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRepository\hgkj_02\程鑫鑫\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD706A33-88D4-4187-9AC8-DDEF56045690}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="7515" activeTab="7"/>
+    <workbookView xWindow="4332" yWindow="1284" windowWidth="15912" windowHeight="10884" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -152,14 +158,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,151 +174,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,194 +193,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -526,258 +202,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -789,62 +220,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1102,44 +495,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1159,8 +557,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1173,7 +571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:4">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,7 +582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1195,26 +593,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="51" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" ht="51" spans="2:4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1225,26 +625,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" ht="51" spans="2:4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1255,26 +657,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1285,8 +689,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1296,30 +700,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1339,29 +744,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1371,7 +778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1379,7 +786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1387,8 +794,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1398,68 +805,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1478,47 +896,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1538,8 +960,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1551,11 +973,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1565,11 +987,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1579,36 +1001,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1618,36 +1042,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1657,30 +1083,32 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1691,8 +1119,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1702,30 +1130,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1745,29 +1174,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1777,7 +1208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1785,7 +1216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1793,8 +1224,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1804,68 +1235,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1884,47 +1326,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1944,8 +1390,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1957,11 +1403,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:5">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1971,11 +1417,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1985,36 +1431,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2024,36 +1472,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2063,30 +1513,32 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2097,8 +1549,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2107,34 +1559,35 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2154,29 +1607,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2186,7 +1641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2194,7 +1649,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2202,8 +1657,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2213,68 +1668,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2293,47 +1759,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2353,8 +1823,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2366,14 +1836,14 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.5</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:5">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2383,11 +1853,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2397,36 +1867,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2436,36 +1908,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2475,36 +1949,38 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="51" spans="2:5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2514,12 +1990,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+      <c r="E15" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2529,30 +2005,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2572,29 +2049,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2604,7 +2083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2612,7 +2091,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2620,8 +2099,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2631,68 +2110,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2711,47 +2201,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="61" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2771,8 +2265,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2784,11 +2278,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2798,11 +2292,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2812,33 +2306,35 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2848,33 +2344,35 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" ht="51" spans="2:4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2885,26 +2383,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2915,8 +2415,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2926,30 +2426,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2969,29 +2470,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3001,7 +2504,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3009,7 +2512,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3017,8 +2520,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3028,68 +2531,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3108,47 +2622,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3168,8 +2686,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3181,11 +2699,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3195,11 +2713,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3209,36 +2727,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3248,36 +2768,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" ht="51" spans="2:4">
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3288,26 +2810,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3318,8 +2842,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3329,30 +2853,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3372,29 +2897,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3404,7 +2931,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3412,7 +2939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3420,8 +2947,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3431,68 +2958,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3511,47 +3049,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3571,8 +3113,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3584,11 +3126,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3598,11 +3140,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3612,36 +3154,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3651,36 +3195,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3690,30 +3236,35 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
+      <c r="E13" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3724,8 +3275,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3734,31 +3285,35 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3778,29 +3333,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3810,7 +3367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3818,7 +3375,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3826,8 +3383,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3837,68 +3394,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3917,47 +3485,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+    <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3977,8 +3549,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3990,11 +3562,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:5">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -4004,11 +3576,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -4018,36 +3590,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="9" ht="51" spans="2:5">
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -4057,36 +3631,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -4096,30 +3672,32 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -4130,8 +3708,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4140,34 +3718,35 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -4187,29 +3766,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4219,7 +3800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -4227,7 +3808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -4235,8 +3816,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -4246,68 +3827,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4326,8 +3918,8 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRepository\hgkj_02\程鑫鑫\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD706A33-88D4-4187-9AC8-DDEF56045690}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF66A78-999B-41EC-8AD6-A677A1255DF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4332" yWindow="1284" windowWidth="15912" windowHeight="10884" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4332" yWindow="1284" windowWidth="15912" windowHeight="10884" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -1769,7 +1769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -3059,8 +3059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
@@ -3172,7 +3172,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRepository\hgkj_02\程鑫鑫\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF66A78-999B-41EC-8AD6-A677A1255DF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4332" yWindow="1284" windowWidth="15912" windowHeight="10884" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20130" windowHeight="7515" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -158,8 +152,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,13 +174,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,8 +331,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -202,15 +526,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -220,24 +789,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -495,49 +1102,44 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -557,8 +1159,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -571,7 +1173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="51" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -582,7 +1184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -593,28 +1195,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" ht="51" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" ht="51" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -625,28 +1225,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" ht="51" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -657,28 +1255,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -689,8 +1285,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -700,31 +1296,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,31 +1339,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -778,7 +1371,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -786,7 +1379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -794,8 +1387,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -805,79 +1398,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -896,51 +1478,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -960,8 +1538,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -973,11 +1551,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -987,11 +1565,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1001,38 +1579,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,38 +1618,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,32 +1657,30 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1119,8 +1691,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1130,31 +1702,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1174,31 +1745,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1208,7 +1777,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1216,7 +1785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1224,8 +1793,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1235,79 +1804,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1326,51 +1884,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1390,8 +1944,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1403,11 +1957,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,11 +1971,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1431,38 +1985,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1472,38 +2024,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,32 +2063,33 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +2100,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1559,35 +2110,34 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1607,31 +2157,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1641,7 +2189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1649,7 +2197,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1657,8 +2205,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1668,79 +2216,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1759,51 +2296,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView zoomScale="58" zoomScaleNormal="58" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1823,8 +2356,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1836,14 +2369,14 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.5</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1853,11 +2386,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1867,38 +2400,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1908,38 +2439,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1949,38 +2478,36 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1990,12 +2517,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2005,31 +2532,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2049,31 +2575,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2083,7 +2607,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2091,7 +2615,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2099,8 +2623,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2110,79 +2634,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2201,51 +2714,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+    <sheetView zoomScale="61" zoomScaleNormal="61" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2265,8 +2774,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2278,11 +2787,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2292,11 +2801,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2306,35 +2815,33 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2344,35 +2851,33 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" ht="51" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2383,28 +2888,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2415,8 +2918,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2426,31 +2929,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2470,31 +2972,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2504,7 +3004,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2512,7 +3012,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2520,8 +3020,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2531,79 +3031,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2622,51 +3111,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2686,8 +3171,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2699,11 +3184,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2713,11 +3198,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2727,38 +3212,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2768,38 +3251,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="12" ht="51" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2810,28 +3291,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2842,8 +3321,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2853,31 +3332,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2897,31 +3375,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2931,7 +3407,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2939,7 +3415,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2947,8 +3423,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2958,79 +3434,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3049,51 +3514,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3113,8 +3574,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3126,11 +3587,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3140,11 +3601,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3154,38 +3615,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3195,38 +3654,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3236,35 +3693,33 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3275,8 +3730,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3285,35 +3740,34 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3333,31 +3787,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3367,7 +3819,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3375,7 +3827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3383,8 +3835,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3394,79 +3846,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3485,51 +3926,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3549,8 +3986,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3562,11 +3999,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3576,11 +4013,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3590,38 +4027,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
       <c r="E8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3631,38 +4066,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3672,32 +4105,33 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3708,8 +4142,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3718,35 +4152,34 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3766,31 +4199,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3800,7 +4231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3808,7 +4239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3816,8 +4247,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3827,79 +4258,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3918,8 +4338,8 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="7515" activeTab="7"/>
+    <workbookView windowWidth="18600" windowHeight="6810" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -155,9 +155,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -175,22 +175,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,14 +204,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,6 +230,13 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,6 +264,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -282,15 +289,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,14 +304,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,7 +333,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,175 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,26 +527,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,16 +591,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,160 +624,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2725,8 +2725,8 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="61" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
@@ -2869,7 +2869,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="4">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:2">
@@ -2877,7 +2877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="51" spans="2:4">
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2886,6 +2886,9 @@
       </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3937,7 +3940,7 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+    <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6810" activeTab="4"/>
+    <workbookView windowWidth="18600" windowHeight="6810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -155,8 +155,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -175,29 +175,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +214,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,7 +251,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,23 +274,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,23 +297,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,21 +305,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,7 +333,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,37 +387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,13 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,49 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,7 +447,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,25 +501,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,15 +524,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,36 +538,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,6 +569,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -630,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,133 +642,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1489,8 +1489,8 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
@@ -1658,10 +1658,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>43643</v>
       </c>
@@ -1673,6 +1673,9 @@
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:2">
@@ -2725,8 +2728,8 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="61" zoomScaleNormal="61" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>

--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRepository\hgkj_02\程鑫鑫\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2098C125-C7CE-418A-9AF0-F4F2ADB78377}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6810" activeTab="4"/>
+    <workbookView xWindow="4140" yWindow="1500" windowWidth="15912" windowHeight="10884" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -152,14 +158,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,151 +174,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,194 +193,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -526,258 +202,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -789,62 +220,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1102,44 +495,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1159,8 +557,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1173,7 +571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:4">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,7 +582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1195,26 +593,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="51" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" ht="51" spans="2:4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1225,26 +625,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" ht="51" spans="2:4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1255,26 +657,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1285,8 +689,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1296,30 +700,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1339,29 +744,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1371,7 +778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1379,7 +786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1387,8 +794,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1398,68 +805,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1478,47 +896,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1538,8 +960,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1551,11 +973,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1565,11 +987,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1579,36 +1001,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1618,36 +1042,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1657,30 +1083,32 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1691,8 +1119,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1702,30 +1130,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1745,29 +1174,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1777,7 +1208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1785,7 +1216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1793,8 +1224,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1804,68 +1235,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1884,47 +1326,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1944,8 +1390,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1957,11 +1403,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:5">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1971,11 +1417,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1985,36 +1431,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2024,36 +1472,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2063,33 +1513,35 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2100,8 +1552,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2110,34 +1562,35 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2157,29 +1610,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2189,7 +1644,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2197,7 +1652,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2205,8 +1660,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2216,68 +1671,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2296,47 +1762,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="58" zoomScaleNormal="58" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2356,8 +1826,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2369,14 +1839,14 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.5</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:5">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2386,11 +1856,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2400,36 +1870,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2439,36 +1911,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2478,36 +1952,38 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="51" spans="2:5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2517,12 +1993,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2532,30 +2008,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2575,29 +2052,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2607,7 +2086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2615,7 +2094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2623,8 +2102,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2634,68 +2113,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2714,47 +2204,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2774,8 +2268,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2787,11 +2281,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2801,11 +2295,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2815,33 +2309,35 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2851,33 +2347,35 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2887,30 +2385,32 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2921,8 +2421,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2932,30 +2432,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2975,29 +2476,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3007,7 +2510,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3015,7 +2518,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3023,8 +2526,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3034,68 +2537,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3114,47 +2628,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3174,8 +2692,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3187,11 +2705,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3201,11 +2719,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3215,36 +2733,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3254,36 +2774,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3293,27 +2815,38 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
+      <c r="E13" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3324,8 +2857,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3335,30 +2868,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3378,29 +2912,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3410,7 +2946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3418,7 +2954,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3426,8 +2962,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3437,68 +2973,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3517,47 +3064,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3577,8 +3128,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3590,11 +3141,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3604,11 +3155,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3618,36 +3169,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3657,36 +3210,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3696,33 +3251,35 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3733,8 +3290,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3743,34 +3300,35 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3790,29 +3348,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3822,7 +3382,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3830,7 +3390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3838,8 +3398,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3849,68 +3409,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3929,47 +3500,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3989,8 +3564,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4002,11 +3577,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:5">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -4016,11 +3591,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -4030,36 +3605,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="9" ht="51" spans="2:5">
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -4069,36 +3646,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -4108,33 +3687,35 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -4145,8 +3726,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4155,34 +3736,35 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -4202,29 +3784,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4234,7 +3818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -4242,7 +3826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -4250,8 +3834,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -4261,68 +3845,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4341,8 +3936,8 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRepository\hgkj_02\程鑫鑫\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2098C125-C7CE-418A-9AF0-F4F2ADB78377}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A50AA1C-02A4-4E17-929C-0B510F6A2292}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1500" windowWidth="15912" windowHeight="10884" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5976" yWindow="1152" windowWidth="15912" windowHeight="10884" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1084,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="3">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1100,6 +1100,9 @@
       <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -1107,6 +1110,9 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -2638,7 +2644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRepository\hgkj_02\程鑫鑫\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A50AA1C-02A4-4E17-929C-0B510F6A2292}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D95CAB5-A201-4DD3-B42A-0F35F06824E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5976" yWindow="1152" windowWidth="15912" windowHeight="10884" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4068" yWindow="1860" windowWidth="15912" windowHeight="10884" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="44">
   <si>
     <t>旅游网——任务计划表（先后端后前端）</t>
   </si>
@@ -153,6 +153,13 @@
   </si>
   <si>
     <t>后台完成</t>
+  </si>
+  <si>
+    <t>7.1 80%-&gt;100%</t>
+  </si>
+  <si>
+    <t>7.1 80%-&gt;100%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -206,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -219,6 +226,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -518,24 +528,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -600,10 +610,10 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -611,8 +621,8 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -632,10 +642,10 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -643,8 +653,8 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -664,10 +674,10 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -675,8 +685,8 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -704,7 +714,7 @@
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -712,17 +722,17 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -751,7 +761,7 @@
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -759,13 +769,13 @@
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -812,7 +822,7 @@
       <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -823,7 +833,7 @@
       <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -832,7 +842,7 @@
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -840,13 +850,13 @@
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -855,29 +865,29 @@
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -906,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -921,24 +931,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1012,10 +1022,10 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3">
@@ -1026,8 +1036,8 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="3">
         <v>1</v>
       </c>
@@ -1053,10 +1063,10 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="3">
@@ -1067,8 +1077,8 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="3">
         <v>1</v>
       </c>
@@ -1094,10 +1104,10 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="3">
@@ -1108,8 +1118,8 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="3">
         <v>1</v>
       </c>
@@ -1140,7 +1150,7 @@
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1148,17 +1158,17 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1187,7 +1197,7 @@
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1195,13 +1205,13 @@
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -1248,7 +1258,7 @@
       <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1259,7 +1269,7 @@
       <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -1268,7 +1278,7 @@
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1276,13 +1286,13 @@
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -1291,29 +1301,29 @@
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1357,24 +1367,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1448,10 +1458,10 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3">
@@ -1462,8 +1472,8 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="3">
         <v>1</v>
       </c>
@@ -1489,10 +1499,10 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="3">
@@ -1503,8 +1513,8 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="3">
         <v>1</v>
       </c>
@@ -1530,10 +1540,10 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="3">
@@ -1544,8 +1554,8 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -1576,7 +1586,7 @@
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1584,17 +1594,17 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1623,7 +1633,7 @@
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1631,13 +1641,13 @@
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -1684,7 +1694,7 @@
       <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1695,7 +1705,7 @@
       <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -1704,7 +1714,7 @@
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1712,13 +1722,13 @@
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -1727,29 +1737,29 @@
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1778,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
@@ -1793,24 +1803,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1887,10 +1897,10 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3">
@@ -1901,8 +1911,8 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="3">
         <v>1</v>
       </c>
@@ -1928,10 +1938,10 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="3">
@@ -1942,8 +1952,8 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="3">
         <v>1</v>
       </c>
@@ -1959,7 +1969,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="3">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1969,10 +1982,10 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="3">
@@ -1983,8 +1996,8 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="3">
         <v>1</v>
       </c>
@@ -2000,7 +2013,10 @@
         <v>27</v>
       </c>
       <c r="E15" s="3">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2018,7 +2034,7 @@
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2026,17 +2042,17 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2065,7 +2081,7 @@
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2073,13 +2089,13 @@
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -2126,7 +2142,7 @@
       <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2137,7 +2153,7 @@
       <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -2146,7 +2162,7 @@
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2154,13 +2170,13 @@
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -2169,29 +2185,29 @@
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2235,24 +2251,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2326,10 +2342,10 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3">
@@ -2340,8 +2356,8 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -2364,10 +2380,10 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="3">
@@ -2378,8 +2394,8 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -2402,10 +2418,10 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2413,8 +2429,8 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -2442,7 +2458,7 @@
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2450,17 +2466,17 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2489,7 +2505,7 @@
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2497,13 +2513,13 @@
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -2550,7 +2566,7 @@
       <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2561,7 +2577,7 @@
       <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -2570,7 +2586,7 @@
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2578,13 +2594,13 @@
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -2593,29 +2609,29 @@
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2659,24 +2675,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2750,10 +2766,10 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3">
@@ -2764,8 +2780,8 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="3">
         <v>1</v>
       </c>
@@ -2791,10 +2807,10 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="3">
@@ -2805,8 +2821,8 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="3">
         <v>1</v>
       </c>
@@ -2832,10 +2848,10 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="3">
@@ -2846,8 +2862,8 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="3">
         <v>0.9</v>
       </c>
@@ -2878,7 +2894,7 @@
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2886,17 +2902,17 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2925,7 +2941,7 @@
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2933,13 +2949,13 @@
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -2986,7 +3002,7 @@
       <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2997,7 +3013,7 @@
       <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -3006,7 +3022,7 @@
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3014,13 +3030,13 @@
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -3029,29 +3045,29 @@
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3095,24 +3111,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3186,10 +3202,10 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3">
@@ -3200,8 +3216,8 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="3">
         <v>1</v>
       </c>
@@ -3227,10 +3243,10 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="3">
@@ -3241,8 +3257,8 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="3">
         <v>1</v>
       </c>
@@ -3268,10 +3284,10 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="3">
@@ -3282,8 +3298,8 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -3314,7 +3330,7 @@
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3322,17 +3338,17 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -3361,7 +3377,7 @@
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3369,13 +3385,13 @@
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -3422,7 +3438,7 @@
       <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3433,7 +3449,7 @@
       <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -3442,7 +3458,7 @@
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3450,13 +3466,13 @@
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -3465,29 +3481,29 @@
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3531,24 +3547,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3622,10 +3638,10 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3">
@@ -3636,8 +3652,8 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1">
         <v>100</v>
       </c>
@@ -3663,10 +3679,10 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="3">
@@ -3677,8 +3693,8 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="3">
         <v>1</v>
       </c>
@@ -3704,10 +3720,10 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="3">
@@ -3718,8 +3734,8 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -3750,7 +3766,7 @@
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3758,17 +3774,17 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -3797,7 +3813,7 @@
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3805,13 +3821,13 @@
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -3858,7 +3874,7 @@
       <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3869,7 +3885,7 @@
       <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -3878,7 +3894,7 @@
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3886,13 +3902,13 @@
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -3901,29 +3917,29 @@
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRepository\hgkj_02\程鑫鑫\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D95CAB5-A201-4DD3-B42A-0F35F06824E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230F14BF-A8A2-4F53-B894-641CC49C0E38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4068" yWindow="1860" windowWidth="15912" windowHeight="10884" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4068" yWindow="1860" windowWidth="15912" windowHeight="10884" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -1788,7 +1788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3096,8 +3096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
@@ -3291,7 +3291,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3300,6 +3300,9 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
+      <c r="E14" s="3">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -3310,6 +3313,9 @@
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">

--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRepository\hgkj_02\程鑫鑫\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230F14BF-A8A2-4F53-B894-641CC49C0E38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4068" yWindow="1860" windowWidth="15912" windowHeight="10884" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20130" windowHeight="7515" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="43">
   <si>
     <t>旅游网——任务计划表（先后端后前端）</t>
   </si>
@@ -157,16 +151,18 @@
   <si>
     <t>7.1 80%-&gt;100%</t>
   </si>
-  <si>
-    <t>7.1 80%-&gt;100%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,13 +177,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +334,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -209,15 +529,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -227,27 +792,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -505,49 +1105,44 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -567,8 +1162,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -581,7 +1176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="51" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -592,7 +1187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -603,28 +1198,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" ht="51" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" ht="51" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -635,28 +1228,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" ht="51" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -667,28 +1258,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -699,8 +1288,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -710,31 +1299,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -754,31 +1342,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -788,7 +1374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -796,7 +1382,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -804,8 +1390,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -815,79 +1401,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -906,51 +1481,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -970,8 +1541,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -983,11 +1554,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -997,11 +1568,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,38 +1582,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,38 +1621,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1093,38 +1660,36 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1135,8 +1700,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1146,31 +1711,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1190,31 +1754,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1224,7 +1786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1232,7 +1794,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1240,8 +1802,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1251,79 +1813,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1342,51 +1893,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1406,8 +1953,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1419,11 +1966,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1433,11 +1980,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,38 +1994,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1488,38 +2033,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1529,35 +2072,36 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1567,9 +2111,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1578,35 +2125,40 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1626,31 +2178,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1660,7 +2210,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1668,7 +2218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1676,8 +2226,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1687,79 +2237,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1778,51 +2317,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView zoomScale="58" zoomScaleNormal="58" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1842,8 +2377,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1855,14 +2390,14 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.5</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1872,11 +2407,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1886,38 +2421,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1927,38 +2460,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:6">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1968,41 +2499,39 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="2:6">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2012,15 +2541,15 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2030,31 +2559,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2074,31 +2602,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2108,7 +2634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2116,7 +2642,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2124,8 +2650,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2135,79 +2661,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2226,51 +2741,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
+    <sheetView zoomScale="61" zoomScaleNormal="61" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2290,8 +2801,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2303,11 +2814,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2317,11 +2828,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2331,35 +2842,33 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2369,35 +2878,33 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2407,32 +2914,30 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2443,8 +2948,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2454,31 +2959,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2498,31 +3002,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2532,7 +3034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2540,7 +3042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2548,8 +3050,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2559,79 +3061,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2650,51 +3141,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2714,8 +3201,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2727,11 +3214,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2741,11 +3228,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2755,38 +3242,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2796,38 +3281,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2837,38 +3320,36 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2879,8 +3360,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2890,31 +3371,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2934,31 +3414,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2968,7 +3446,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2976,7 +3454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2984,8 +3462,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2995,79 +3473,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3086,51 +3553,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
+    <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3150,8 +3613,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3163,11 +3626,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3177,11 +3640,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3191,38 +3654,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3232,38 +3693,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3273,38 +3732,36 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="15" ht="51" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3314,12 +3771,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3328,35 +3785,34 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3376,31 +3832,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3410,7 +3864,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3418,7 +3872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3426,8 +3880,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3437,79 +3891,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3528,51 +3971,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3592,8 +4031,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3605,11 +4044,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3619,11 +4058,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3633,38 +4072,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
       <c r="E8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3674,38 +4111,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3715,35 +4150,36 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3753,9 +4189,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3764,35 +4203,40 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3812,31 +4256,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3846,7 +4288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3854,7 +4296,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3862,8 +4304,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3873,79 +4315,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3964,8 +4395,8 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="7515" activeTab="7"/>
+    <workbookView windowWidth="19890" windowHeight="7515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -157,9 +157,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -220,38 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -262,6 +230,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,8 +267,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,13 +308,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,7 +342,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,13 +360,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,31 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,31 +426,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,49 +498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,13 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,6 +548,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -563,6 +578,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -574,30 +598,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,10 +633,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,133 +645,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1492,8 +1492,8 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
@@ -1661,7 +1661,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1689,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="51" spans="2:4">
+    <row r="15" ht="51" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1699,8 +1699,11 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>43644</v>
       </c>
@@ -1709,6 +1712,9 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -1904,7 +1910,7 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="66" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -3982,7 +3988,7 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+    <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRepository\hgkj_02\程鑫鑫\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D00859D-B200-4F3D-8E97-5B8CC9107E94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7515" activeTab="1"/>
+    <workbookView xWindow="4068" yWindow="1860" windowWidth="15912" windowHeight="10884" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="44">
   <si>
     <t>旅游网——任务计划表（先后端后前端）</t>
   </si>
@@ -150,19 +156,17 @@
   </si>
   <si>
     <t>7.1 80%-&gt;100%</t>
+  </si>
+  <si>
+    <t>7.1 80%-&gt;100%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,151 +181,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,194 +200,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -529,258 +209,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -792,62 +227,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1105,44 +502,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1162,8 +564,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1176,7 +578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:4">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,7 +589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1198,26 +600,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="51" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" ht="51" spans="2:4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1228,26 +632,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" ht="51" spans="2:4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1258,26 +664,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1288,8 +696,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1299,30 +707,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1342,29 +751,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1374,7 +785,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1382,7 +793,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1390,8 +801,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1401,68 +812,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1481,47 +903,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1541,8 +967,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1554,11 +980,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1568,11 +994,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,36 +1008,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1621,36 +1049,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1660,36 +1090,38 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="51" spans="2:5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1699,12 +1131,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1713,34 +1145,35 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1760,29 +1193,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1792,7 +1227,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1800,7 +1235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1808,8 +1243,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1819,68 +1254,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1899,47 +1345,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1959,8 +1409,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1972,11 +1422,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:5">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1986,11 +1436,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2000,36 +1450,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2039,36 +1491,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2078,36 +1532,38 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="51" spans="2:5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2117,12 +1573,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2131,40 +1587,41 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2184,29 +1641,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2216,7 +1675,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2224,7 +1683,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2232,8 +1691,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2243,68 +1702,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2323,47 +1793,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="58" zoomScaleNormal="58" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2383,8 +1857,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2396,14 +1870,14 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.5</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:5">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2413,11 +1887,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2427,36 +1901,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2466,36 +1942,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:6">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2505,39 +1983,41 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="51" spans="2:6">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2547,15 +2027,15 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2564,31 +2044,38 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E16" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2608,29 +2095,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2640,7 +2129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2648,7 +2137,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2656,8 +2145,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2667,68 +2156,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2747,47 +2247,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="61" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2807,8 +2311,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2820,11 +2324,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2834,11 +2338,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2848,33 +2352,35 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2884,33 +2390,35 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2920,30 +2428,32 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2954,8 +2464,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2965,30 +2475,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3008,29 +2519,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3040,7 +2553,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3048,7 +2561,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3056,8 +2569,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3067,68 +2580,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3147,47 +2671,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3207,8 +2735,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3220,11 +2748,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3234,11 +2762,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3248,36 +2776,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3287,36 +2817,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3326,36 +2858,38 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" ht="51" spans="2:4">
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3366,8 +2900,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3377,30 +2911,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3420,29 +2955,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3452,7 +2989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3460,7 +2997,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3468,8 +3005,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3479,68 +3016,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3559,47 +3107,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3619,8 +3171,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3632,11 +3184,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3646,11 +3198,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3660,36 +3212,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3699,36 +3253,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3738,36 +3294,38 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" ht="51" spans="2:5">
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3777,12 +3335,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3791,34 +3349,35 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3838,29 +3397,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3870,7 +3431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3878,7 +3439,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3886,8 +3447,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3897,68 +3458,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3977,47 +3549,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4037,8 +3613,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4050,11 +3626,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:5">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -4064,11 +3640,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -4078,36 +3654,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="9" ht="51" spans="2:5">
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -4117,36 +3695,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -4156,36 +3736,38 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="51" spans="2:5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -4195,12 +3777,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4209,40 +3791,41 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -4262,29 +3845,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4294,7 +3879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -4302,7 +3887,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -4310,8 +3895,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -4321,68 +3906,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4401,8 +3997,8 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7515" activeTab="1"/>
+    <workbookView windowWidth="18600" windowHeight="6810" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -158,8 +158,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -178,6 +178,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -185,14 +192,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,30 +222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,11 +252,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,7 +283,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,7 +315,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,7 +336,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,49 +480,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,115 +504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,63 +527,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -604,11 +547,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,151 +577,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1492,7 +1492,7 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2758,8 +2758,8 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="61" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
@@ -2921,7 +2921,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2938,12 +2938,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2953,8 +2956,11 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>43644</v>
       </c>
@@ -2964,13 +2970,19 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:2">

--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6810" activeTab="4"/>
+    <workbookView windowWidth="19890" windowHeight="7515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -158,8 +158,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -178,13 +178,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -192,15 +185,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,7 +214,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,26 +267,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,7 +283,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,7 +315,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,13 +336,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,7 +396,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,79 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,55 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,7 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +527,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,18 +604,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,66 +627,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,133 +645,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1492,7 +1492,7 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2758,8 +2758,8 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="61" zoomScaleNormal="61" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
@@ -2921,7 +2921,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2938,15 +2938,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="51" spans="2:5">
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2956,11 +2953,8 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="3">
         <v>43644</v>
       </c>
@@ -2970,19 +2964,13 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:2">

--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRepository\hgkj_02\程鑫鑫\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D00859D-B200-4F3D-8E97-5B8CC9107E94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4068" yWindow="1860" windowWidth="15912" windowHeight="10884" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18600" windowHeight="6810" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="43">
   <si>
     <t>旅游网——任务计划表（先后端后前端）</t>
   </si>
@@ -157,16 +151,18 @@
   <si>
     <t>7.1 80%-&gt;100%</t>
   </si>
-  <si>
-    <t>7.1 80%-&gt;100%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,13 +177,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +334,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -209,15 +529,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -227,24 +792,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -502,49 +1105,44 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -564,8 +1162,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -578,7 +1176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="51" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -589,7 +1187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -600,28 +1198,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" ht="51" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" ht="51" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -632,28 +1228,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" ht="51" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -664,28 +1258,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -696,8 +1288,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -707,31 +1299,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -751,31 +1342,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -785,7 +1374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -793,7 +1382,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -801,8 +1390,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -812,79 +1401,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -903,51 +1481,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -967,8 +1541,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -980,11 +1554,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -994,11 +1568,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,38 +1582,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1049,38 +1621,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1090,38 +1660,36 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1131,12 +1699,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1145,35 +1713,34 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1193,31 +1760,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1227,7 +1792,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1235,7 +1800,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,8 +1808,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1254,79 +1819,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1345,51 +1899,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="66" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1409,8 +1959,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1422,11 +1972,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1436,11 +1986,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1450,38 +2000,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1491,38 +2039,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,38 +2078,36 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1573,12 +2117,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1587,41 +2131,40 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1641,31 +2184,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1675,7 +2216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1683,7 +2224,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1691,8 +2232,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1702,79 +2243,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1793,51 +2323,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView zoomScale="58" zoomScaleNormal="58" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1857,8 +2383,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1870,14 +2396,14 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.5</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1887,11 +2413,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1901,38 +2427,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1942,38 +2466,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:6">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1983,41 +2505,39 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="2:6">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2027,15 +2547,15 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2044,38 +2564,37 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>0.7</v>
       </c>
       <c r="F16" s="1">
         <v>7.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2095,31 +2614,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2129,7 +2646,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2137,7 +2654,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2145,8 +2662,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2156,79 +2673,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2247,51 +2753,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2311,8 +2813,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2324,11 +2826,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2338,11 +2840,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2352,35 +2854,33 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2390,35 +2890,33 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2428,32 +2926,33 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" ht="51" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2463,9 +2962,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2474,32 +2976,34 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2519,31 +3023,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2553,7 +3055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2561,7 +3063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2569,8 +3071,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2580,79 +3082,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2671,51 +3162,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2735,8 +3222,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2748,11 +3235,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2762,11 +3249,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2776,38 +3263,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2817,38 +3302,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2858,38 +3341,36 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2900,8 +3381,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2911,31 +3392,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2955,31 +3435,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2989,7 +3467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2997,7 +3475,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3005,8 +3483,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3016,79 +3494,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3107,51 +3574,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3171,8 +3634,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3184,11 +3647,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3198,11 +3661,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3212,38 +3675,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3253,38 +3714,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3294,38 +3753,36 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="15" ht="51" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3335,12 +3792,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3349,35 +3806,34 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3397,31 +3853,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3431,7 +3885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3439,7 +3893,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3447,8 +3901,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3458,79 +3912,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3549,51 +3992,47 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6666666666667" style="1"/>
+    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6666666666667" style="1"/>
+    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3613,8 +4052,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3626,11 +4065,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3640,11 +4079,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3654,38 +4093,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
       <c r="E8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3695,38 +4132,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3736,38 +4171,36 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3777,12 +4210,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3791,41 +4224,40 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3845,31 +4277,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3879,7 +4309,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3887,7 +4317,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3895,8 +4325,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3906,79 +4336,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3997,8 +4416,8 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6810" activeTab="4"/>
+    <workbookView windowWidth="18600" windowHeight="6810" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -157,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -178,14 +178,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,9 +221,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,17 +293,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,69 +314,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,7 +336,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,43 +444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,37 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,25 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,49 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,36 +527,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,6 +554,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -599,11 +587,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,11 +613,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,10 +633,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,133 +645,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1492,8 +1492,8 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
@@ -2764,7 +2764,7 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" topLeftCell="A9" workbookViewId="0">
+    <sheetView zoomScale="61" zoomScaleNormal="61" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3173,7 +3173,7 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -3342,7 +3342,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3359,18 +3359,16 @@
         <v>26</v>
       </c>
       <c r="E13" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" ht="51" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3379,6 +3377,9 @@
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="1:3">

--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6810" activeTab="5"/>
+    <workbookView windowWidth="20130" windowHeight="7515" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -157,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -178,7 +178,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,13 +278,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,94 +298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,10 +313,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -336,7 +336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,19 +348,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,19 +420,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,55 +480,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,61 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +527,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -554,24 +613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -586,192 +627,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1911,7 +1911,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="66" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
@@ -2184,7 +2184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <v>43647</v>
       </c>
@@ -2194,10 +2194,16 @@
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="E21" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -3173,7 +3179,7 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="A2" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -4004,8 +4010,8 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
@@ -4278,7 +4284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <v>43647</v>
       </c>
@@ -4288,10 +4294,16 @@
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="E21" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="2:2">

--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="7515" activeTab="7"/>
+    <workbookView windowWidth="19890" windowHeight="7515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -157,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -178,13 +178,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -192,84 +185,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,9 +214,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,10 +314,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -336,7 +336,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,13 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,61 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,79 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,65 +527,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -613,6 +554,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -627,16 +588,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,133 +645,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1492,8 +1492,8 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C23"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
@@ -1717,17 +1717,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1760,7 +1766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <v>43647</v>
       </c>
@@ -1769,6 +1775,9 @@
       </c>
       <c r="C21" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -4010,7 +4019,7 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" topLeftCell="A9" workbookViewId="0">
+    <sheetView zoomScale="48" zoomScaleNormal="48" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>

--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRepository\hgkj_02\程鑫鑫\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53703A43-B515-447B-9A3E-8DFC1BFEC522}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7515" activeTab="1"/>
+    <workbookView xWindow="4716" yWindow="2076" windowWidth="15912" windowHeight="10884" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -155,14 +161,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,151 +177,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,194 +196,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -529,258 +205,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -792,62 +223,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1105,44 +498,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1162,8 +560,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1176,7 +574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:4">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,7 +585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1198,26 +596,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="51" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" ht="51" spans="2:4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1228,26 +628,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" ht="51" spans="2:4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1258,26 +660,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1288,8 +692,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1299,30 +703,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1342,29 +747,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1374,7 +781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1382,7 +789,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1390,8 +797,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1401,68 +808,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1481,47 +899,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1541,8 +963,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1554,11 +976,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1568,11 +990,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,36 +1004,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1621,36 +1045,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1660,36 +1086,38 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="51" spans="2:5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1699,12 +1127,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1713,40 +1141,41 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="4">
+      <c r="C18" s="5"/>
+      <c r="E18" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1766,32 +1195,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1801,7 +1232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1809,7 +1240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1817,8 +1248,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1828,68 +1259,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1908,47 +1350,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1968,8 +1414,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1981,11 +1427,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:5">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1995,11 +1441,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2009,36 +1455,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2048,36 +1496,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2087,36 +1537,38 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="51" spans="2:5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2126,12 +1578,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2140,40 +1592,41 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2193,35 +1646,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="4">
+      <c r="C22" s="5"/>
+      <c r="E22" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2231,7 +1686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2239,7 +1694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2247,8 +1702,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2258,68 +1713,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2338,47 +1804,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="58" zoomScaleNormal="58" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2398,8 +1868,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2411,14 +1881,14 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>0.5</v>
+      <c r="E4" s="3">
+        <v>0.8</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:5">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2428,11 +1898,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2442,36 +1912,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2481,36 +1953,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:6">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2520,39 +1994,41 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="51" spans="2:6">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2562,15 +2038,15 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2579,37 +2055,44 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>0.7</v>
+      <c r="E16" s="3">
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>7.2</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+      <c r="E18" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2629,29 +2112,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2661,7 +2146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2669,7 +2154,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2677,8 +2162,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2688,68 +2173,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2768,47 +2264,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="61" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2828,8 +2328,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2841,11 +2341,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2855,11 +2355,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2869,33 +2369,35 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2905,33 +2407,35 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2941,33 +2445,35 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2977,12 +2483,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2991,34 +2497,35 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3038,29 +2545,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3070,7 +2579,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3078,7 +2587,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3086,8 +2595,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3097,68 +2606,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3177,47 +2697,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3237,8 +2761,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3250,11 +2774,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3264,11 +2788,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3278,36 +2802,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3317,36 +2843,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3356,34 +2884,36 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" ht="51" spans="2:5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3393,12 +2923,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3408,30 +2938,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3451,29 +2982,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3483,7 +3016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3491,7 +3024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3499,8 +3032,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3510,68 +3043,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3590,47 +3134,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3650,8 +3198,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3663,11 +3211,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3677,11 +3225,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3691,36 +3239,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3730,36 +3280,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3769,36 +3321,38 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" ht="51" spans="2:5">
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3808,12 +3362,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3822,34 +3376,35 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3869,29 +3424,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3901,7 +3458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3909,7 +3466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3917,8 +3474,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3928,68 +3485,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4008,47 +3576,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="48" zoomScaleNormal="48" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6666666666667" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.6666666666667" style="1"/>
-    <col min="3" max="3" width="30.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.8833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6666666666667" style="1"/>
-    <col min="6" max="6" width="63.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6666666666667" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4068,8 +3640,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4081,11 +3653,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:5">
+    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -4095,11 +3667,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -4109,36 +3681,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="9" ht="51" spans="2:5">
+    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -4148,36 +3722,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -4187,36 +3763,38 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="51" spans="2:5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -4226,12 +3804,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4240,40 +3818,41 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -4293,35 +3872,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="4">
+      <c r="C22" s="5"/>
+      <c r="E22" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4331,7 +3912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -4339,7 +3920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -4347,8 +3928,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -4358,68 +3939,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4438,8 +4030,8 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRepository\hgkj_02\程鑫鑫\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\hgkj_02\程鑫鑫\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53703A43-B515-447B-9A3E-8DFC1BFEC522}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1630B2B4-BE58-496B-A691-F7FCC0F73B08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4716" yWindow="2076" windowWidth="15912" windowHeight="10884" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="19560" windowHeight="7905" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -231,7 +231,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -510,17 +510,17 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.625" style="1"/>
+    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1"/>
+    <col min="6" max="6" width="63.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -530,7 +530,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -540,7 +540,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -560,7 +560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43640</v>
       </c>
@@ -574,7 +574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -585,7 +585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43641</v>
       </c>
@@ -610,14 +610,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -628,7 +628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43642</v>
       </c>
@@ -642,14 +642,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -660,7 +660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43643</v>
       </c>
@@ -674,14 +674,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -692,7 +692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43644</v>
       </c>
@@ -703,7 +703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
@@ -711,13 +711,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -727,7 +727,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -747,7 +747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43647</v>
       </c>
@@ -758,19 +758,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43648</v>
       </c>
@@ -781,7 +781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -789,7 +789,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -797,7 +797,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43649</v>
       </c>
@@ -808,7 +808,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
@@ -819,7 +819,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
@@ -828,7 +828,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43650</v>
       </c>
@@ -839,19 +839,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43651</v>
       </c>
@@ -860,19 +860,19 @@
       </c>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
@@ -913,17 +913,17 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.625" style="1"/>
+    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1"/>
+    <col min="6" max="6" width="63.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -933,7 +933,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -943,7 +943,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -963,7 +963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43640</v>
       </c>
@@ -980,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43641</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43642</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43643</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43644</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43647</v>
       </c>
@@ -1209,19 +1209,19 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43648</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43649</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43650</v>
       </c>
@@ -1290,19 +1290,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43651</v>
       </c>
@@ -1311,19 +1311,19 @@
       </c>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
@@ -1364,17 +1364,17 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.625" style="1"/>
+    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1"/>
+    <col min="6" max="6" width="63.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1384,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43640</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43641</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43642</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43643</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43644</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1626,7 +1626,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43647</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
@@ -1669,13 +1669,13 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43648</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43649</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43650</v>
       </c>
@@ -1744,19 +1744,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43651</v>
       </c>
@@ -1765,19 +1765,19 @@
       </c>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
@@ -1814,21 +1814,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.625" style="1"/>
+    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1"/>
+    <col min="6" max="6" width="63.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +1838,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43640</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43641</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43642</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43643</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43644</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43647</v>
       </c>
@@ -2123,19 +2123,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43648</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43649</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43650</v>
       </c>
@@ -2204,19 +2204,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43651</v>
       </c>
@@ -2225,19 +2225,19 @@
       </c>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
@@ -2278,17 +2278,17 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.625" style="1"/>
+    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1"/>
+    <col min="6" max="6" width="63.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2298,7 +2298,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43640</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43641</v>
       </c>
@@ -2390,14 +2390,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43642</v>
       </c>
@@ -2428,14 +2428,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43643</v>
       </c>
@@ -2466,14 +2466,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43644</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
@@ -2509,13 +2509,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43647</v>
       </c>
@@ -2556,19 +2556,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43648</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43649</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43650</v>
       </c>
@@ -2637,19 +2637,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43651</v>
       </c>
@@ -2658,19 +2658,19 @@
       </c>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
@@ -2711,17 +2711,17 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.625" style="1"/>
+    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1"/>
+    <col min="6" max="6" width="63.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +2731,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2741,7 +2741,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43640</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43641</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43642</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43643</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43644</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
@@ -2946,13 +2946,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43647</v>
       </c>
@@ -2993,19 +2993,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43648</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43649</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43650</v>
       </c>
@@ -3074,19 +3074,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43651</v>
       </c>
@@ -3095,19 +3095,19 @@
       </c>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
@@ -3144,21 +3144,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.625" style="1"/>
+    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1"/>
+    <col min="6" max="6" width="63.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3168,7 +3168,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -3178,7 +3178,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43640</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43641</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43642</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43643</v>
       </c>
@@ -3342,17 +3342,17 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3363,10 +3363,10 @@
         <v>27</v>
       </c>
       <c r="E15" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43644</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
@@ -3388,13 +3388,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3404,7 +3404,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43647</v>
       </c>
@@ -3434,20 +3434,23 @@
       <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43648</v>
       </c>
@@ -3458,7 +3461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3474,7 +3477,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43649</v>
       </c>
@@ -3485,7 +3488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
@@ -3496,7 +3499,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
@@ -3505,7 +3508,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43650</v>
       </c>
@@ -3516,19 +3519,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43651</v>
       </c>
@@ -3537,19 +3540,19 @@
       </c>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
@@ -3578,7 +3581,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3590,17 +3593,17 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="25.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.625" style="1"/>
+    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1"/>
+    <col min="6" max="6" width="63.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3610,7 +3613,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -3620,7 +3623,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3640,7 +3643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43640</v>
       </c>
@@ -3657,7 +3660,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3671,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3685,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43641</v>
       </c>
@@ -3702,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3712,7 +3715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3726,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43642</v>
       </c>
@@ -3743,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
@@ -3753,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3767,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43643</v>
       </c>
@@ -3784,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -3794,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3808,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43644</v>
       </c>
@@ -3822,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
@@ -3833,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -3842,7 +3845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -3852,7 +3855,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3872,7 +3875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43647</v>
       </c>
@@ -3886,7 +3889,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
@@ -3895,13 +3898,13 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43648</v>
       </c>
@@ -3912,7 +3915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3920,7 +3923,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3928,7 +3931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43649</v>
       </c>
@@ -3939,7 +3942,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
@@ -3959,7 +3962,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43650</v>
       </c>
@@ -3970,19 +3973,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43651</v>
       </c>
@@ -3991,19 +3994,19 @@
       </c>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>

--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\hgkj_02\程鑫鑫\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1630B2B4-BE58-496B-A691-F7FCC0F73B08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="19560" windowHeight="7905" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18600" windowHeight="6810" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -161,8 +155,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,13 +177,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +334,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -205,15 +529,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -223,24 +792,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -498,19 +1105,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="20.625" style="1"/>
     <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
@@ -520,27 +1127,22 @@
     <col min="7" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -560,8 +1162,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -574,7 +1176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" ht="51" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -585,7 +1187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -596,28 +1198,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" ht="51" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" ht="51" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -628,28 +1228,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" ht="51" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -660,28 +1258,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" ht="51" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -692,8 +1288,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -703,31 +1299,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -747,31 +1342,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -781,7 +1374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -789,7 +1382,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -797,8 +1390,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -808,79 +1401,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -899,21 +1481,22 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="20.625" style="1"/>
     <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
@@ -923,27 +1506,22 @@
     <col min="7" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -963,8 +1541,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -976,11 +1554,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -990,11 +1568,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,38 +1582,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1045,38 +1621,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1086,38 +1660,36 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1127,12 +1699,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1141,41 +1713,40 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1195,34 +1766,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:5">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1232,7 +1801,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1240,7 +1809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1248,8 +1817,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1259,79 +1828,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1350,21 +1908,22 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="66" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="20.625" style="1"/>
     <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
@@ -1374,27 +1933,22 @@
     <col min="7" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1414,8 +1968,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1427,11 +1981,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1441,11 +1995,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1455,38 +2009,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1496,38 +2048,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1537,38 +2087,36 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1578,12 +2126,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1592,41 +2140,40 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1646,37 +2193,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:5">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1686,7 +2231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1694,7 +2239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1702,8 +2247,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1713,79 +2258,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1804,21 +2338,22 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+    <sheetView zoomScale="58" zoomScaleNormal="58" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="20.625" style="1"/>
     <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
@@ -1828,27 +2363,22 @@
     <col min="7" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1868,8 +2398,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1881,14 +2411,14 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.8</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1898,11 +2428,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1912,38 +2442,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1953,38 +2481,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:6">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1994,41 +2520,39 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="2:6">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2038,15 +2562,15 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:6">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2055,44 +2579,43 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>7.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2112,31 +2635,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2146,7 +2667,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2154,7 +2675,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2162,8 +2683,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2173,79 +2694,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2264,21 +2774,22 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="20.625" style="1"/>
     <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
@@ -2288,27 +2799,22 @@
     <col min="7" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2328,8 +2834,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2341,11 +2847,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2355,11 +2861,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2369,35 +2875,33 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2407,35 +2911,33 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2445,35 +2947,33 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" ht="51" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2483,12 +2983,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2497,35 +2997,37 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="E18" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2545,31 +3047,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:5">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2579,7 +3082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2587,7 +3090,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2595,8 +3098,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2606,79 +3109,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2697,21 +3189,22 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="20.625" style="1"/>
     <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
@@ -2721,27 +3214,22 @@
     <col min="7" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2761,8 +3249,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2774,11 +3262,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2788,11 +3276,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2802,38 +3290,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2843,38 +3329,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2884,36 +3368,34 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" ht="51" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2923,12 +3405,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2938,31 +3420,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2982,31 +3463,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3016,7 +3495,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3024,7 +3503,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3032,8 +3511,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3043,79 +3522,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3134,21 +3602,22 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
+    <sheetView zoomScale="41" zoomScaleNormal="41" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="20.625" style="1"/>
     <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
@@ -3158,27 +3627,22 @@
     <col min="7" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3198,8 +3662,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3211,11 +3675,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3225,11 +3689,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3239,38 +3703,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3280,38 +3742,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3321,38 +3781,36 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3362,12 +3820,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3376,35 +3834,34 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3424,34 +3881,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:5">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3461,7 +3916,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3469,7 +3924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3477,8 +3932,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3488,79 +3943,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3579,21 +4023,22 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+    <sheetView zoomScale="48" zoomScaleNormal="48" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="20.625" style="1"/>
     <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
@@ -3603,27 +4048,22 @@
     <col min="7" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="76.5" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3643,8 +4083,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3656,11 +4096,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3670,11 +4110,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3684,38 +4124,36 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:5">
+      <c r="A7" s="3">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
       <c r="E8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" ht="51" spans="2:5">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3725,38 +4163,36 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="51" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3766,38 +4202,36 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="51" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3807,12 +4241,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3821,41 +4255,40 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3875,37 +4308,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:5">
+      <c r="A21" s="3">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3915,7 +4346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3923,7 +4354,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3931,8 +4362,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3942,79 +4373,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4033,8 +4453,8 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/程鑫鑫/程鑫鑫.xlsx
+++ b/程鑫鑫/程鑫鑫.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\花刺\Documents\GitHub\hgkj_02\程鑫鑫\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870A2A55-1233-4EE1-80B3-D603CE2F7B5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6810" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -155,14 +161,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,151 +177,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,194 +196,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -529,258 +205,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -792,62 +223,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1105,44 +498,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="25.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.625" style="1"/>
-    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1"/>
-    <col min="6" max="6" width="63.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.625" style="1"/>
+    <col min="1" max="2" width="20.58203125" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" style="1"/>
+    <col min="6" max="6" width="63.58203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1162,8 +560,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1176,7 +574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:4">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,7 +585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1198,26 +596,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="51" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" ht="51" spans="2:4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1228,26 +628,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" ht="51" spans="2:4">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1258,26 +660,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1288,8 +692,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1299,30 +703,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1342,29 +747,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1374,7 +781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1382,7 +789,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1390,8 +797,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1401,68 +808,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1481,47 +899,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="25.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.625" style="1"/>
-    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1"/>
-    <col min="6" max="6" width="63.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.625" style="1"/>
+    <col min="1" max="2" width="20.58203125" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" style="1"/>
+    <col min="6" max="6" width="63.58203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1541,8 +963,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1554,11 +976,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1568,11 +990,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,36 +1004,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1621,36 +1045,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1660,36 +1086,38 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="51" spans="2:5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1699,12 +1127,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1713,40 +1141,41 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="4">
+      <c r="C18" s="5"/>
+      <c r="E18" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1766,32 +1195,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1801,7 +1232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1809,7 +1240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1817,8 +1248,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1828,68 +1259,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1908,47 +1350,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="25.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.625" style="1"/>
-    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1"/>
-    <col min="6" max="6" width="63.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.625" style="1"/>
+    <col min="1" max="2" width="20.58203125" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" style="1"/>
+    <col min="6" max="6" width="63.58203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1968,8 +1414,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1981,11 +1427,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:5">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1995,11 +1441,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2009,36 +1455,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2048,36 +1496,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2087,36 +1537,38 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="51" spans="2:5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2126,12 +1578,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2140,40 +1592,41 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2193,35 +1646,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="4">
+      <c r="C22" s="5"/>
+      <c r="E22" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2231,7 +1686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2239,7 +1694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2247,8 +1702,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2258,68 +1713,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2338,47 +1804,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="58" zoomScaleNormal="58" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="25.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.625" style="1"/>
-    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1"/>
-    <col min="6" max="6" width="63.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.625" style="1"/>
+    <col min="1" max="2" width="20.58203125" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" style="1"/>
+    <col min="6" max="6" width="63.58203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2398,8 +1868,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2411,14 +1881,14 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.8</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" ht="51" spans="2:5">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2428,11 +1898,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2442,36 +1912,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2481,36 +1953,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:6">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2520,39 +1994,41 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="51" spans="2:6">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2562,15 +2038,15 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2579,43 +2055,44 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>7.2</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="4">
+      <c r="C18" s="5"/>
+      <c r="E18" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2635,29 +2112,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2667,7 +2146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2675,7 +2154,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2683,8 +2162,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2694,68 +2173,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2774,47 +2264,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="61" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="25.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.625" style="1"/>
-    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1"/>
-    <col min="6" max="6" width="63.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.625" style="1"/>
+    <col min="1" max="2" width="20.58203125" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" style="1"/>
+    <col min="6" max="6" width="63.58203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2834,8 +2328,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2847,11 +2341,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2861,11 +2355,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2875,33 +2369,35 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2911,33 +2407,35 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2947,33 +2445,35 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" ht="51" spans="2:5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2983,12 +2483,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2997,37 +2497,38 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="4">
+      <c r="C18" s="5"/>
+      <c r="E18" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3047,32 +2548,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3082,7 +2585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3090,7 +2593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3098,8 +2601,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3109,68 +2612,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3189,47 +2703,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="25.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.625" style="1"/>
-    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1"/>
-    <col min="6" max="6" width="63.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.625" style="1"/>
+    <col min="1" max="2" width="20.58203125" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" style="1"/>
+    <col min="6" max="6" width="63.58203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3249,8 +2767,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3262,11 +2780,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3276,11 +2794,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3290,36 +2808,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3329,36 +2849,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3368,34 +2890,36 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" ht="51" spans="2:5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3405,12 +2929,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>43644</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3419,31 +2943,38 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="E17" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3463,29 +2994,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>43647</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="E21" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>43648</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3495,7 +3031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3503,7 +3039,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3511,8 +3047,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>43649</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3522,68 +3058,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>43650</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>43651</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3602,47 +3149,51 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D28:D29"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="41" zoomScaleNormal="41" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="25.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.625" style="1"/>
-    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1"/>
-    <col min="6" max="6" width="63.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="20.625" style="1"/>
+    <col min="1" max="2" width="20.58203125" style="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.58203125" style="1"/>
+    <col min="6" max="6" width="63.58203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="20.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="76.5" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3662,8 +3213,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3675,11 +3226,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3689,11 +3240,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3703,36 +3254,38 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="51" spans="2:5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3742,36 +3295,38 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>43642</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3781,36 +3336,38 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>43643</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="51" spans="2:5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3820,12 +3377,12 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      <